--- a/BRD/aula4-4/tabela-dados.xlsx
+++ b/BRD/aula4-4/tabela-dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logonrmlocal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8031823-1F71-45CB-8859-4C0A294ED6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575562B4-DA51-4B1D-A7B5-DF7F0A5AC259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{AF0B58FA-36D0-418B-B384-E06AAE4F7AB1}"/>
   </bookViews>
@@ -323,15 +323,6 @@
     <t># cd_dependente</t>
   </si>
   <si>
-    <t>T_SIP_CLIENTE</t>
-  </si>
-  <si>
-    <t>T_SIP_PRODUTO</t>
-  </si>
-  <si>
-    <t>T_SIP_UNIDADECOMERCIAL</t>
-  </si>
-  <si>
     <t>data nascimento</t>
   </si>
   <si>
@@ -344,21 +335,12 @@
     <t>preco</t>
   </si>
   <si>
-    <t>T_SIP_CFOP</t>
-  </si>
-  <si>
-    <t>T_SIP_NOTA</t>
-  </si>
-  <si>
     <t>tipo</t>
   </si>
   <si>
     <t>ITENS NOTA FISCAL</t>
   </si>
   <si>
-    <t>T_SIP_ITENSNOTA</t>
-  </si>
-  <si>
     <t>codigo nota</t>
   </si>
   <si>
@@ -416,12 +398,6 @@
     <t>nm_produto</t>
   </si>
   <si>
-    <t>dc_produto</t>
-  </si>
-  <si>
-    <t>pc_produto</t>
-  </si>
-  <si>
     <t>qt_produto</t>
   </si>
   <si>
@@ -462,13 +438,37 @@
   </si>
   <si>
     <t>dt_emissao</t>
+  </si>
+  <si>
+    <t>T_SPV_CLIENTE</t>
+  </si>
+  <si>
+    <t>T_SPV_PRODUTO</t>
+  </si>
+  <si>
+    <t>T_SPV_UNIDADECOMERCIAL</t>
+  </si>
+  <si>
+    <t>T_SPV_CFOP</t>
+  </si>
+  <si>
+    <t>T_SPV_NOTA</t>
+  </si>
+  <si>
+    <t>T_SPV_ITENSNOTA</t>
+  </si>
+  <si>
+    <t>ds_produto</t>
+  </si>
+  <si>
+    <t>vl_produto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,6 +502,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -914,7 +921,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1057,7 +1064,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1086,7 +1092,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
@@ -1096,6 +1101,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1415,7 +1424,7 @@
   </sheetPr>
   <dimension ref="B2:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1434,10 +1443,10 @@
       <c r="C2"/>
     </row>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="89" t="s">
+      <c r="F3" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="90"/>
+      <c r="G3" s="88"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
@@ -1887,8 +1896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B5B90D-5FF1-4555-A326-74BA7F5FAEB4}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1903,10 +1912,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="90"/>
+      <c r="F1" s="88"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -1943,8 +1952,8 @@
       <c r="B4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="85" t="s">
-        <v>108</v>
+      <c r="C4" s="92" t="s">
+        <v>102</v>
       </c>
       <c r="D4" s="43" t="s">
         <v>57</v>
@@ -1958,11 +1967,11 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="86" t="s">
-        <v>109</v>
+      <c r="C5" s="84" t="s">
+        <v>103</v>
       </c>
       <c r="D5" s="51" t="s">
         <v>64</v>
@@ -1977,9 +1986,9 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
       <c r="B6" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="85" t="s">
         <v>79</v>
       </c>
       <c r="D6" s="44" t="s">
@@ -1997,8 +2006,8 @@
       <c r="B7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="88" t="s">
-        <v>110</v>
+      <c r="C7" s="86" t="s">
+        <v>104</v>
       </c>
       <c r="D7" s="50" t="s">
         <v>64</v>
@@ -2015,17 +2024,17 @@
       <c r="B8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="86" t="s">
         <v>81</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E8" s="50" t="s">
         <v>66</v>
       </c>
       <c r="F8" s="50" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2033,17 +2042,17 @@
       <c r="B9" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="88" t="s">
-        <v>111</v>
+      <c r="C9" s="86" t="s">
+        <v>105</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E9" s="50" t="s">
         <v>69</v>
       </c>
       <c r="F9" s="50" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2051,8 +2060,8 @@
       <c r="B10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="88" t="s">
-        <v>112</v>
+      <c r="C10" s="86" t="s">
+        <v>106</v>
       </c>
       <c r="D10" s="50" t="s">
         <v>64</v>
@@ -2066,10 +2075,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="88" t="s">
-        <v>117</v>
+        <v>107</v>
+      </c>
+      <c r="C11" s="86" t="s">
+        <v>111</v>
       </c>
       <c r="D11" s="50" t="s">
         <v>57</v>
@@ -2084,10 +2093,10 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="34"/>
       <c r="B12" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="88" t="s">
-        <v>119</v>
+        <v>108</v>
+      </c>
+      <c r="C12" s="86" t="s">
+        <v>113</v>
       </c>
       <c r="D12" s="50" t="s">
         <v>57</v>
@@ -2104,10 +2113,10 @@
         <v>24</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="88" t="s">
-        <v>118</v>
+        <v>109</v>
+      </c>
+      <c r="C13" s="86" t="s">
+        <v>112</v>
       </c>
       <c r="D13" s="50" t="s">
         <v>57</v>
@@ -2121,13 +2130,13 @@
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="70" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="88" t="s">
-        <v>120</v>
+        <v>110</v>
+      </c>
+      <c r="C14" s="86" t="s">
+        <v>114</v>
       </c>
       <c r="D14" s="50" t="s">
         <v>57</v>
@@ -2142,10 +2151,10 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>122</v>
+        <v>96</v>
+      </c>
+      <c r="C15" s="91" t="s">
+        <v>116</v>
       </c>
       <c r="D15" s="43" t="s">
         <v>57</v>
@@ -2163,7 +2172,7 @@
         <v>30</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D16" s="44" t="s">
         <v>64</v>
@@ -2181,7 +2190,7 @@
         <v>48</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D17" s="44" t="s">
         <v>64</v>
@@ -2198,10 +2207,10 @@
         <v>35</v>
       </c>
       <c r="B18" s="64" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="D18" s="44" t="s">
         <v>64</v>
@@ -2215,31 +2224,31 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="76" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="80" t="s">
-        <v>128</v>
-      </c>
-      <c r="D19" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="81" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="81" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="79" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="80" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="70"/>
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="72" t="s">
-        <v>123</v>
+      <c r="C20" s="89" t="s">
+        <v>117</v>
       </c>
       <c r="D20" s="62" t="s">
         <v>57</v>
@@ -2255,11 +2264,11 @@
       <c r="A21" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="73" t="s">
-        <v>130</v>
+      <c r="C21" s="72" t="s">
+        <v>122</v>
       </c>
       <c r="D21" s="51" t="s">
         <v>64</v>
@@ -2273,13 +2282,13 @@
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" s="84" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="74" t="s">
-        <v>131</v>
+      <c r="C22" s="73" t="s">
+        <v>123</v>
       </c>
       <c r="D22" s="44" t="s">
         <v>64</v>
@@ -2293,11 +2302,11 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="39" t="s">
-        <v>132</v>
+      <c r="C23" s="90" t="s">
+        <v>124</v>
       </c>
       <c r="D23" s="47" t="s">
         <v>57</v>
@@ -2317,7 +2326,7 @@
         <v>50</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D24" s="48" t="s">
         <v>64</v>
@@ -2331,13 +2340,13 @@
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D25" s="48" t="s">
         <v>64</v>
@@ -2352,10 +2361,10 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>135</v>
+        <v>126</v>
+      </c>
+      <c r="C26" s="90" t="s">
+        <v>127</v>
       </c>
       <c r="D26" s="43" t="s">
         <v>57</v>
@@ -2370,42 +2379,42 @@
       <c r="B27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="77" t="s">
-        <v>141</v>
+      <c r="C27" s="76" t="s">
+        <v>133</v>
       </c>
       <c r="D27" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="78" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" s="78"/>
+      <c r="E27" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="77"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="77" t="s">
+      <c r="C28" s="76" t="s">
         <v>89</v>
       </c>
       <c r="D28" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="78" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="78"/>
+      <c r="E28" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="77"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>44</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D29" s="44" t="s">
         <v>64</v>
@@ -2417,13 +2426,13 @@
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="35" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D30" s="46" t="s">
         <v>64</v>
@@ -2436,10 +2445,10 @@
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="39" t="s">
-        <v>124</v>
+        <v>101</v>
+      </c>
+      <c r="C31" s="90" t="s">
+        <v>118</v>
       </c>
       <c r="D31" s="43" t="s">
         <v>57</v>
@@ -2452,46 +2461,46 @@
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="77" t="s">
-        <v>138</v>
+        <v>97</v>
+      </c>
+      <c r="C32" s="76" t="s">
+        <v>130</v>
       </c>
       <c r="D32" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="79" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" s="78"/>
+      <c r="E32" s="78" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="77"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" s="77" t="s">
-        <v>139</v>
+        <v>98</v>
+      </c>
+      <c r="C33" s="76" t="s">
+        <v>131</v>
       </c>
       <c r="D33" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="79" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" s="78"/>
+      <c r="E33" s="78" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="77"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="35" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D34" s="46" t="s">
         <v>64</v>
@@ -2506,6 +2515,7 @@
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
